--- a/biology/Zoologie/Cynopterus_nusatenggara/Cynopterus_nusatenggara.xlsx
+++ b/biology/Zoologie/Cynopterus_nusatenggara/Cynopterus_nusatenggara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynopterus nusatenggara est une espèce de chauves-souris de la famille des Pteropodidae, endémique d'Indonésie.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (5 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (5 mars 2021) :
 sous-espèce Cynopterus nusatenggara nusatenggara Kitchener &amp; Maharadatunkamsi, 1991
 sous-espèce Cynopterus nusatenggara sinagai Kitchener, 1996
 sous-espèce Cynopterus nusatenggara wetarensis Kitchener, 1996</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, nusatenggara, lui a été donné en référence au groupe d'iles correspondant à son aire de répartition, Nusa Tenggara Timur en indonésien, les petites îles de la Sonde orientales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, nusatenggara, lui a été donné en référence au groupe d'iles correspondant à son aire de répartition, Nusa Tenggara Timur en indonésien, les petites îles de la Sonde orientales.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) D. J. Kitchener et Datun Maharadatunkamsi, « Description of a new species of Cynopterus (Chiroptera: Pteropodidae) from Nusa Tenggara, Indonesia », Records of the Western Australian Museum, Western Australian Museum, vol. 15, no 2,‎ 1991, p. 307-363 (ISSN 0312-3162, lire en ligne)</t>
         </is>
